--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ngf-Sort1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ngf-Sort1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.45936929020854</v>
+        <v>3.658241666666667</v>
       </c>
       <c r="H2">
-        <v>3.45936929020854</v>
+        <v>10.974725</v>
       </c>
       <c r="I2">
-        <v>0.2581973929806376</v>
+        <v>0.2093988336068688</v>
       </c>
       <c r="J2">
-        <v>0.2581973929806376</v>
+        <v>0.2730291219287808</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.461407530318915</v>
+        <v>0.500046</v>
       </c>
       <c r="N2">
-        <v>0.461407530318915</v>
+        <v>1.000092</v>
       </c>
       <c r="O2">
-        <v>0.01953304342673219</v>
+        <v>0.02009953378395692</v>
       </c>
       <c r="P2">
-        <v>0.01953304342673219</v>
+        <v>0.01521121714331422</v>
       </c>
       <c r="Q2">
-        <v>1.59617904065622</v>
+        <v>1.82928911245</v>
       </c>
       <c r="R2">
-        <v>1.59617904065622</v>
+        <v>10.9757346747</v>
       </c>
       <c r="S2">
-        <v>0.005043380889759831</v>
+        <v>0.004208818930402434</v>
       </c>
       <c r="T2">
-        <v>0.005043380889759831</v>
+        <v>0.0041531052601071</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.45936929020854</v>
+        <v>3.658241666666667</v>
       </c>
       <c r="H3">
-        <v>3.45936929020854</v>
+        <v>10.974725</v>
       </c>
       <c r="I3">
-        <v>0.2581973929806376</v>
+        <v>0.2093988336068688</v>
       </c>
       <c r="J3">
-        <v>0.2581973929806376</v>
+        <v>0.2730291219287808</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.654092394347995</v>
+        <v>0.821983</v>
       </c>
       <c r="N3">
-        <v>0.654092394347995</v>
+        <v>2.465949</v>
       </c>
       <c r="O3">
-        <v>0.02769008805526827</v>
+        <v>0.03303991048491191</v>
       </c>
       <c r="P3">
-        <v>0.02769008805526827</v>
+        <v>0.03750663509291002</v>
       </c>
       <c r="Q3">
-        <v>2.262747141966428</v>
+        <v>3.007012459891667</v>
       </c>
       <c r="R3">
-        <v>2.262747141966428</v>
+        <v>27.063112139025</v>
       </c>
       <c r="S3">
-        <v>0.007149508547274561</v>
+        <v>0.006918518718015909</v>
       </c>
       <c r="T3">
-        <v>0.007149508547274561</v>
+        <v>0.01024040364592042</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.45936929020854</v>
+        <v>3.658241666666667</v>
       </c>
       <c r="H4">
-        <v>3.45936929020854</v>
+        <v>10.974725</v>
       </c>
       <c r="I4">
-        <v>0.2581973929806376</v>
+        <v>0.2093988336068688</v>
       </c>
       <c r="J4">
-        <v>0.2581973929806376</v>
+        <v>0.2730291219287808</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.8291232923892</v>
+        <v>7.086962666666667</v>
       </c>
       <c r="N4">
-        <v>6.8291232923892</v>
+        <v>21.260888</v>
       </c>
       <c r="O4">
-        <v>0.2891013975098061</v>
+        <v>0.2848630836849173</v>
       </c>
       <c r="P4">
-        <v>0.2891013975098061</v>
+        <v>0.3233742335981926</v>
       </c>
       <c r="Q4">
-        <v>23.62445939673903</v>
+        <v>25.92582211731111</v>
       </c>
       <c r="R4">
-        <v>23.62445939673903</v>
+        <v>233.3323990558</v>
       </c>
       <c r="S4">
-        <v>0.07464522714409091</v>
+        <v>0.05964999746127753</v>
       </c>
       <c r="T4">
-        <v>0.07464522714409091</v>
+        <v>0.08829058305370696</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.45936929020854</v>
+        <v>3.658241666666667</v>
       </c>
       <c r="H5">
-        <v>3.45936929020854</v>
+        <v>10.974725</v>
       </c>
       <c r="I5">
-        <v>0.2581973929806376</v>
+        <v>0.2093988336068688</v>
       </c>
       <c r="J5">
-        <v>0.2581973929806376</v>
+        <v>0.2730291219287808</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.33955543897952</v>
+        <v>6.510773</v>
       </c>
       <c r="N5">
-        <v>6.33955543897952</v>
+        <v>19.532319</v>
       </c>
       <c r="O5">
-        <v>0.2683762261317538</v>
+        <v>0.2617029270770581</v>
       </c>
       <c r="P5">
-        <v>0.2683762261317538</v>
+        <v>0.2970830139841956</v>
       </c>
       <c r="Q5">
-        <v>21.93086339918027</v>
+        <v>23.81798107080833</v>
       </c>
       <c r="R5">
-        <v>21.93086339918027</v>
+        <v>214.361829637275</v>
       </c>
       <c r="S5">
-        <v>0.0692940419252009</v>
+        <v>0.05480028768143939</v>
       </c>
       <c r="T5">
-        <v>0.0692940419252009</v>
+        <v>0.08111231444806062</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.45936929020854</v>
+        <v>3.658241666666667</v>
       </c>
       <c r="H6">
-        <v>3.45936929020854</v>
+        <v>10.974725</v>
       </c>
       <c r="I6">
-        <v>0.2581973929806376</v>
+        <v>0.2093988336068688</v>
       </c>
       <c r="J6">
-        <v>0.2581973929806376</v>
+        <v>0.2730291219287808</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.960635674751374</v>
+        <v>1.570313333333333</v>
       </c>
       <c r="N6">
-        <v>0.960635674751374</v>
+        <v>4.71094</v>
       </c>
       <c r="O6">
-        <v>0.04066716973435044</v>
+        <v>0.06311932481158002</v>
       </c>
       <c r="P6">
-        <v>0.04066716973435044</v>
+        <v>0.07165253925551318</v>
       </c>
       <c r="Q6">
-        <v>3.323193552313663</v>
+        <v>5.744585665722222</v>
       </c>
       <c r="R6">
-        <v>3.323193552313663</v>
+        <v>51.7012709915</v>
       </c>
       <c r="S6">
-        <v>0.01050015720531037</v>
+        <v>0.01321711299359795</v>
       </c>
       <c r="T6">
-        <v>0.01050015720531037</v>
+        <v>0.01956322987690026</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.45936929020854</v>
+        <v>3.658241666666667</v>
       </c>
       <c r="H7">
-        <v>3.45936929020854</v>
+        <v>10.974725</v>
       </c>
       <c r="I7">
-        <v>0.2581973929806376</v>
+        <v>0.2093988336068688</v>
       </c>
       <c r="J7">
-        <v>0.2581973929806376</v>
+        <v>0.2730291219287808</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.377082177539499</v>
+        <v>8.3884095</v>
       </c>
       <c r="N7">
-        <v>8.377082177539499</v>
+        <v>16.776819</v>
       </c>
       <c r="O7">
-        <v>0.3546320751420892</v>
+        <v>0.3371752201575759</v>
       </c>
       <c r="P7">
-        <v>0.3546320751420892</v>
+        <v>0.2551723609258745</v>
       </c>
       <c r="Q7">
-        <v>28.97942082653343</v>
+        <v>30.6868291499625</v>
       </c>
       <c r="R7">
-        <v>28.97942082653343</v>
+        <v>184.120974899775</v>
       </c>
       <c r="S7">
-        <v>0.09156507726900101</v>
+        <v>0.07060409782213559</v>
       </c>
       <c r="T7">
-        <v>0.09156507726900101</v>
+        <v>0.06966948564408547</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>9.938788027622939</v>
+        <v>0.09087633333333334</v>
       </c>
       <c r="H8">
-        <v>9.938788027622939</v>
+        <v>0.272629</v>
       </c>
       <c r="I8">
-        <v>0.7418026070193624</v>
+        <v>0.005201788163931856</v>
       </c>
       <c r="J8">
-        <v>0.7418026070193624</v>
+        <v>0.006782462110196072</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.461407530318915</v>
+        <v>0.500046</v>
       </c>
       <c r="N8">
-        <v>0.461407530318915</v>
+        <v>1.000092</v>
       </c>
       <c r="O8">
-        <v>0.01953304342673219</v>
+        <v>0.02009953378395692</v>
       </c>
       <c r="P8">
-        <v>0.01953304342673219</v>
+        <v>0.01521121714331422</v>
       </c>
       <c r="Q8">
-        <v>4.585831638188701</v>
+        <v>0.045442346978</v>
       </c>
       <c r="R8">
-        <v>4.585831638188701</v>
+        <v>0.272654081868</v>
       </c>
       <c r="S8">
-        <v>0.01448966253697236</v>
+        <v>0.0001045535169379356</v>
       </c>
       <c r="T8">
-        <v>0.01448966253697236</v>
+        <v>0.0001031695039244936</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -974,49 +974,49 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>9.938788027622939</v>
+        <v>0.09087633333333334</v>
       </c>
       <c r="H9">
-        <v>9.938788027622939</v>
+        <v>0.272629</v>
       </c>
       <c r="I9">
-        <v>0.7418026070193624</v>
+        <v>0.005201788163931856</v>
       </c>
       <c r="J9">
-        <v>0.7418026070193624</v>
+        <v>0.006782462110196072</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.654092394347995</v>
+        <v>0.821983</v>
       </c>
       <c r="N9">
-        <v>0.654092394347995</v>
+        <v>2.465949</v>
       </c>
       <c r="O9">
-        <v>0.02769008805526827</v>
+        <v>0.03303991048491191</v>
       </c>
       <c r="P9">
-        <v>0.02769008805526827</v>
+        <v>0.03750663509291002</v>
       </c>
       <c r="Q9">
-        <v>6.500885657905076</v>
+        <v>0.07469880110233333</v>
       </c>
       <c r="R9">
-        <v>6.500885657905076</v>
+        <v>0.6722892099210001</v>
       </c>
       <c r="S9">
-        <v>0.02054057950799371</v>
+        <v>0.0001718666152977828</v>
       </c>
       <c r="T9">
-        <v>0.02054057950799371</v>
+        <v>0.0002543873313986125</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>9.938788027622939</v>
+        <v>0.09087633333333334</v>
       </c>
       <c r="H10">
-        <v>9.938788027622939</v>
+        <v>0.272629</v>
       </c>
       <c r="I10">
-        <v>0.7418026070193624</v>
+        <v>0.005201788163931856</v>
       </c>
       <c r="J10">
-        <v>0.7418026070193624</v>
+        <v>0.006782462110196072</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.8291232923892</v>
+        <v>7.086962666666667</v>
       </c>
       <c r="N10">
-        <v>6.8291232923892</v>
+        <v>21.260888</v>
       </c>
       <c r="O10">
-        <v>0.2891013975098061</v>
+        <v>0.2848630836849173</v>
       </c>
       <c r="P10">
-        <v>0.2891013975098061</v>
+        <v>0.3233742335981926</v>
       </c>
       <c r="Q10">
-        <v>67.87320881755873</v>
+        <v>0.6440371816168889</v>
       </c>
       <c r="R10">
-        <v>67.87320881755873</v>
+        <v>5.796334634552</v>
       </c>
       <c r="S10">
-        <v>0.2144561703657152</v>
+        <v>0.001481797417053332</v>
       </c>
       <c r="T10">
-        <v>0.2144561703657152</v>
+        <v>0.002193273486793435</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>9.938788027622939</v>
+        <v>0.09087633333333334</v>
       </c>
       <c r="H11">
-        <v>9.938788027622939</v>
+        <v>0.272629</v>
       </c>
       <c r="I11">
-        <v>0.7418026070193624</v>
+        <v>0.005201788163931856</v>
       </c>
       <c r="J11">
-        <v>0.7418026070193624</v>
+        <v>0.006782462110196072</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.33955543897952</v>
+        <v>6.510773</v>
       </c>
       <c r="N11">
-        <v>6.33955543897952</v>
+        <v>19.532319</v>
       </c>
       <c r="O11">
-        <v>0.2683762261317538</v>
+        <v>0.2617029270770581</v>
       </c>
       <c r="P11">
-        <v>0.2683762261317538</v>
+        <v>0.2970830139841956</v>
       </c>
       <c r="Q11">
-        <v>63.00749769738154</v>
+        <v>0.5916751774056668</v>
       </c>
       <c r="R11">
-        <v>63.00749769738154</v>
+        <v>5.325076596651001</v>
       </c>
       <c r="S11">
-        <v>0.1990821842065529</v>
+        <v>0.001361323188535762</v>
       </c>
       <c r="T11">
-        <v>0.1990821842065529</v>
+        <v>0.002014954285930656</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>9.938788027622939</v>
+        <v>0.09087633333333334</v>
       </c>
       <c r="H12">
-        <v>9.938788027622939</v>
+        <v>0.272629</v>
       </c>
       <c r="I12">
-        <v>0.7418026070193624</v>
+        <v>0.005201788163931856</v>
       </c>
       <c r="J12">
-        <v>0.7418026070193624</v>
+        <v>0.006782462110196072</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.960635674751374</v>
+        <v>1.570313333333333</v>
       </c>
       <c r="N12">
-        <v>0.960635674751374</v>
+        <v>4.71094</v>
       </c>
       <c r="O12">
-        <v>0.04066716973435044</v>
+        <v>0.06311932481158002</v>
       </c>
       <c r="P12">
-        <v>0.04066716973435044</v>
+        <v>0.07165253925551318</v>
       </c>
       <c r="Q12">
-        <v>9.547554343126439</v>
+        <v>0.1427043179177778</v>
       </c>
       <c r="R12">
-        <v>9.547554343126439</v>
+        <v>1.28433886126</v>
       </c>
       <c r="S12">
-        <v>0.03016701252904007</v>
+        <v>0.0003283333567202472</v>
       </c>
       <c r="T12">
-        <v>0.03016701252904007</v>
+        <v>0.0004859806325998548</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,805 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.09087633333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.272629</v>
+      </c>
+      <c r="I13">
+        <v>0.005201788163931856</v>
+      </c>
+      <c r="J13">
+        <v>0.006782462110196072</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.3884095</v>
+      </c>
+      <c r="N13">
+        <v>16.776819</v>
+      </c>
+      <c r="O13">
+        <v>0.3371752201575759</v>
+      </c>
+      <c r="P13">
+        <v>0.2551723609258745</v>
+      </c>
+      <c r="Q13">
+        <v>0.7623078978585001</v>
+      </c>
+      <c r="R13">
+        <v>4.573847387151</v>
+      </c>
+      <c r="S13">
+        <v>0.001753914069386796</v>
+      </c>
+      <c r="T13">
+        <v>0.001730696869549021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>1.506631333333333</v>
+      </c>
+      <c r="H14">
+        <v>4.519894</v>
+      </c>
+      <c r="I14">
+        <v>0.08624002256336123</v>
+      </c>
+      <c r="J14">
+        <v>0.1124458872574178</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.500046</v>
+      </c>
+      <c r="N14">
+        <v>1.000092</v>
+      </c>
+      <c r="O14">
+        <v>0.02009953378395692</v>
+      </c>
+      <c r="P14">
+        <v>0.01521121714331422</v>
+      </c>
+      <c r="Q14">
+        <v>0.7533849717079999</v>
+      </c>
+      <c r="R14">
+        <v>4.520309830247999</v>
+      </c>
+      <c r="S14">
+        <v>0.001733384247041486</v>
+      </c>
+      <c r="T14">
+        <v>0.001710438807945212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>1.506631333333333</v>
+      </c>
+      <c r="H15">
+        <v>4.519894</v>
+      </c>
+      <c r="I15">
+        <v>0.08624002256336123</v>
+      </c>
+      <c r="J15">
+        <v>0.1124458872574178</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.821983</v>
+      </c>
+      <c r="N15">
+        <v>2.465949</v>
+      </c>
+      <c r="O15">
+        <v>0.03303991048491191</v>
+      </c>
+      <c r="P15">
+        <v>0.03750663509291002</v>
+      </c>
+      <c r="Q15">
+        <v>1.238425343267333</v>
+      </c>
+      <c r="R15">
+        <v>11.145828089406</v>
+      </c>
+      <c r="S15">
+        <v>0.002849362625710239</v>
+      </c>
+      <c r="T15">
+        <v>0.00421746686106247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.506631333333333</v>
+      </c>
+      <c r="H16">
+        <v>4.519894</v>
+      </c>
+      <c r="I16">
+        <v>0.08624002256336123</v>
+      </c>
+      <c r="J16">
+        <v>0.1124458872574178</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>7.086962666666667</v>
+      </c>
+      <c r="N16">
+        <v>21.260888</v>
+      </c>
+      <c r="O16">
+        <v>0.2848630836849173</v>
+      </c>
+      <c r="P16">
+        <v>0.3233742335981926</v>
+      </c>
+      <c r="Q16">
+        <v>10.67744001176356</v>
+      </c>
+      <c r="R16">
+        <v>96.096960105872</v>
+      </c>
+      <c r="S16">
+        <v>0.02456659876445592</v>
+      </c>
+      <c r="T16">
+        <v>0.03636210261313625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.506631333333333</v>
+      </c>
+      <c r="H17">
+        <v>4.519894</v>
+      </c>
+      <c r="I17">
+        <v>0.08624002256336123</v>
+      </c>
+      <c r="J17">
+        <v>0.1124458872574178</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.510773</v>
+      </c>
+      <c r="N17">
+        <v>19.532319</v>
+      </c>
+      <c r="O17">
+        <v>0.2617029270770581</v>
+      </c>
+      <c r="P17">
+        <v>0.2970830139841956</v>
+      </c>
+      <c r="Q17">
+        <v>9.809334606020666</v>
+      </c>
+      <c r="R17">
+        <v>88.284011454186</v>
+      </c>
+      <c r="S17">
+        <v>0.02256926633602317</v>
+      </c>
+      <c r="T17">
+        <v>0.03340576309656074</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>1.506631333333333</v>
+      </c>
+      <c r="H18">
+        <v>4.519894</v>
+      </c>
+      <c r="I18">
+        <v>0.08624002256336123</v>
+      </c>
+      <c r="J18">
+        <v>0.1124458872574178</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.570313333333333</v>
+      </c>
+      <c r="N18">
+        <v>4.71094</v>
+      </c>
+      <c r="O18">
+        <v>0.06311932481158002</v>
+      </c>
+      <c r="P18">
+        <v>0.07165253925551318</v>
+      </c>
+      <c r="Q18">
+        <v>2.365883271151111</v>
+      </c>
+      <c r="R18">
+        <v>21.29294944036</v>
+      </c>
+      <c r="S18">
+        <v>0.005443411995934787</v>
+      </c>
+      <c r="T18">
+        <v>0.00805703335083314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>1.506631333333333</v>
+      </c>
+      <c r="H19">
+        <v>4.519894</v>
+      </c>
+      <c r="I19">
+        <v>0.08624002256336123</v>
+      </c>
+      <c r="J19">
+        <v>0.1124458872574178</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>8.3884095</v>
+      </c>
+      <c r="N19">
+        <v>16.776819</v>
+      </c>
+      <c r="O19">
+        <v>0.3371752201575759</v>
+      </c>
+      <c r="P19">
+        <v>0.2551723609258745</v>
+      </c>
+      <c r="Q19">
+        <v>12.638240589531</v>
+      </c>
+      <c r="R19">
+        <v>75.82944353718599</v>
+      </c>
+      <c r="S19">
+        <v>0.02907799859419563</v>
+      </c>
+      <c r="T19">
+        <v>0.02869308252788002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>12.214461</v>
+      </c>
+      <c r="H20">
+        <v>24.428922</v>
+      </c>
+      <c r="I20">
+        <v>0.6991593556658381</v>
+      </c>
+      <c r="J20">
+        <v>0.6077425287036055</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.500046</v>
+      </c>
+      <c r="N20">
+        <v>1.000092</v>
+      </c>
+      <c r="O20">
+        <v>0.02009953378395692</v>
+      </c>
+      <c r="P20">
+        <v>0.01521121714331422</v>
+      </c>
+      <c r="Q20">
+        <v>6.107792365206</v>
+      </c>
+      <c r="R20">
+        <v>24.431169460824</v>
+      </c>
+      <c r="S20">
+        <v>0.01405277708957507</v>
+      </c>
+      <c r="T20">
+        <v>0.009244503571337418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>12.214461</v>
+      </c>
+      <c r="H21">
+        <v>24.428922</v>
+      </c>
+      <c r="I21">
+        <v>0.6991593556658381</v>
+      </c>
+      <c r="J21">
+        <v>0.6077425287036055</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.821983</v>
+      </c>
+      <c r="N21">
+        <v>2.465949</v>
+      </c>
+      <c r="O21">
+        <v>0.03303991048491191</v>
+      </c>
+      <c r="P21">
+        <v>0.03750663509291002</v>
+      </c>
+      <c r="Q21">
+        <v>10.040079296163</v>
+      </c>
+      <c r="R21">
+        <v>60.240475776978</v>
+      </c>
+      <c r="S21">
+        <v>0.02310016252588798</v>
+      </c>
+      <c r="T21">
+        <v>0.02279437725452852</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>12.214461</v>
+      </c>
+      <c r="H22">
+        <v>24.428922</v>
+      </c>
+      <c r="I22">
+        <v>0.6991593556658381</v>
+      </c>
+      <c r="J22">
+        <v>0.6077425287036055</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>7.086962666666667</v>
+      </c>
+      <c r="N22">
+        <v>21.260888</v>
+      </c>
+      <c r="O22">
+        <v>0.2848630836849173</v>
+      </c>
+      <c r="P22">
+        <v>0.3233742335981926</v>
+      </c>
+      <c r="Q22">
+        <v>86.56342910045601</v>
+      </c>
+      <c r="R22">
+        <v>519.380574602736</v>
+      </c>
+      <c r="S22">
+        <v>0.1991646900421305</v>
+      </c>
+      <c r="T22">
+        <v>0.196528274444556</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>9.938788027622939</v>
-      </c>
-      <c r="H13">
-        <v>9.938788027622939</v>
-      </c>
-      <c r="I13">
-        <v>0.7418026070193624</v>
-      </c>
-      <c r="J13">
-        <v>0.7418026070193624</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>8.377082177539499</v>
-      </c>
-      <c r="N13">
-        <v>8.377082177539499</v>
-      </c>
-      <c r="O13">
-        <v>0.3546320751420892</v>
-      </c>
-      <c r="P13">
-        <v>0.3546320751420892</v>
-      </c>
-      <c r="Q13">
-        <v>83.25804405254307</v>
-      </c>
-      <c r="R13">
-        <v>83.25804405254307</v>
-      </c>
-      <c r="S13">
-        <v>0.2630669978730882</v>
-      </c>
-      <c r="T13">
-        <v>0.2630669978730882</v>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>12.214461</v>
+      </c>
+      <c r="H23">
+        <v>24.428922</v>
+      </c>
+      <c r="I23">
+        <v>0.6991593556658381</v>
+      </c>
+      <c r="J23">
+        <v>0.6077425287036055</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>6.510773</v>
+      </c>
+      <c r="N23">
+        <v>19.532319</v>
+      </c>
+      <c r="O23">
+        <v>0.2617029270770581</v>
+      </c>
+      <c r="P23">
+        <v>0.2970830139841956</v>
+      </c>
+      <c r="Q23">
+        <v>79.525582888353</v>
+      </c>
+      <c r="R23">
+        <v>477.153497330118</v>
+      </c>
+      <c r="S23">
+        <v>0.1829720498710597</v>
+      </c>
+      <c r="T23">
+        <v>0.1805499821536436</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>12.214461</v>
+      </c>
+      <c r="H24">
+        <v>24.428922</v>
+      </c>
+      <c r="I24">
+        <v>0.6991593556658381</v>
+      </c>
+      <c r="J24">
+        <v>0.6077425287036055</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.570313333333333</v>
+      </c>
+      <c r="N24">
+        <v>4.71094</v>
+      </c>
+      <c r="O24">
+        <v>0.06311932481158002</v>
+      </c>
+      <c r="P24">
+        <v>0.07165253925551318</v>
+      </c>
+      <c r="Q24">
+        <v>19.18053096778</v>
+      </c>
+      <c r="R24">
+        <v>115.08318580668</v>
+      </c>
+      <c r="S24">
+        <v>0.04413046646532703</v>
+      </c>
+      <c r="T24">
+        <v>0.04354629539517994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>12.214461</v>
+      </c>
+      <c r="H25">
+        <v>24.428922</v>
+      </c>
+      <c r="I25">
+        <v>0.6991593556658381</v>
+      </c>
+      <c r="J25">
+        <v>0.6077425287036055</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>8.3884095</v>
+      </c>
+      <c r="N25">
+        <v>16.776819</v>
+      </c>
+      <c r="O25">
+        <v>0.3371752201575759</v>
+      </c>
+      <c r="P25">
+        <v>0.2551723609258745</v>
+      </c>
+      <c r="Q25">
+        <v>102.4599006897795</v>
+      </c>
+      <c r="R25">
+        <v>409.839602759118</v>
+      </c>
+      <c r="S25">
+        <v>0.2357392096718579</v>
+      </c>
+      <c r="T25">
+        <v>0.1550790958843601</v>
       </c>
     </row>
   </sheetData>
